--- a/docs/ST1a/ST1a_03.09.2024_output.xlsx
+++ b/docs/ST1a/ST1a_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731655348.2573578</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731655349.6173334</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731655348.2573578.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731655349.6173334.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>247.33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>247.31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731655352.0198436</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731655355.8428328</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731655352.0198436.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731655355.8428328.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>247.48</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731655355.8578212</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731655355.8578212.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731655355.8578212.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>247.48</v>
       </c>
-      <c r="J5" t="n">
-        <v>247.48</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>246.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.329999999999984</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731655360.392042</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731655361.5026891</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655360.392042.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655361.5026891.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>247.33</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>247.31</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731655363.6727672</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731655366.8846767</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655363.6727672.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655366.8846767.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>247.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>247.48</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731655366.9006715</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731655368.8284419</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655366.9006715.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655368.8284419.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>247.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>241.83</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>5.649999999999977</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>2.28</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731655376.3821166</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731655379.7658112</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655376.3821166.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731655379.7658112.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>248.03</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>248.37</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731655383.6606145</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731655385.4896142</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731655383.6606145.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731655385.4896142.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>124.46</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>124.47</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731655385.506541</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731655386.5715854</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731655385.506541.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731655386.5715854.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>124.47</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>124.75</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731655386.5875428</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731655387.934144</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731655386.5875428.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731655387.934144.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>124.75</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>124.67</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731655392.3223772</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731655392.3223772.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731655392.3223772.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>123.71</v>
       </c>
-      <c r="J13" t="n">
-        <v>123.71</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>123.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3099999999999881</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731655393.8224192</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731655393.9196882</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655393.8224192.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655393.9196882.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6111.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6136.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731655394.1585937</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731655397.5368621</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655394.1585937.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655397.5368621.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6116.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6203.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>87</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731655397.5527909</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731655398.0717301</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655397.5527909.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655398.0717301.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6203.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6199</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731655402.217843</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731655404.4305081</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655402.217843.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731655404.4305081.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6200</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6186</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-14</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1303,95 +1409,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731655404.4464657</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731655404.4464657.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731655404.4464657.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6186</v>
       </c>
-      <c r="J18" t="n">
-        <v>6186</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731655406.3462133</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731655407.3277574</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731655406.3462133.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731655407.3277574.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>456.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>461.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731655408.9721556</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731655416.2468913</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731655408.9721556.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731655416.2468913.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>464.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>467.1</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1451,95 +1575,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731655416.261849</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731655416.261849.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731655416.261849.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>467.1</v>
       </c>
-      <c r="J21" t="n">
-        <v>467.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>465.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731655417.4576967</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731655420.4624767</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655417.4576967.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655420.4624767.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>190.13</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>193.86</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-3.730000000000018</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-1.96</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731655420.5257463</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731655422.546215</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655420.5257463.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655422.546215.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>193.7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>195.9</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.200000000000017</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731655422.984321</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731655423.8817964</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655422.984321.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655423.8817964.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>195.21</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>195.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.289999999999992</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731655427.0505776</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731655427.7765682</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655427.0505776.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655427.7765682.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>194.14</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>193.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.7399999999999807</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1703,51 +1857,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731655427.7935221</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731655428.6340554</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655427.7935221.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731655428.6340554.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>193.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>193.35</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1755,95 +1915,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731655428.6500094</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731655428.6500094.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731655428.6500094.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>193.35</v>
       </c>
-      <c r="J27" t="n">
-        <v>193.35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>192.31</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.039999999999992</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731655435.4843879</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731655437.505464</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731655435.4843879.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731655437.505464.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>963.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>972.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>9</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.9299999999999999</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731655438.4182968</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731655439.422288</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731655438.4182968.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731655439.422288.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>970.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>971</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1903,95 +2081,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731655439.4372509</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731655439.4372509.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731655439.4372509.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>971</v>
       </c>
-      <c r="J30" t="n">
-        <v>971</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>963</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731655446.4429061</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731655447.2486339</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731655446.4429061.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731655447.2486339.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.992</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.984</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731655447.4789722</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731655447.9328952</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731655447.4789722.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731655447.9328952.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.981</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11.987</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731655458.136201</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731655459.8863103</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731655458.136201.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731655459.8863103.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>106.02</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>105.88</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2103,51 +2305,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731655461.0277274</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731655465.407979</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731655461.0277274.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731655465.407979.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>106.42</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>105.86</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -2155,95 +2363,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731655465.424904</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731655465.424904.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731655465.424904.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>105.86</v>
       </c>
-      <c r="J35" t="n">
-        <v>105.86</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>105.66</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731655471.5688694</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731655472.2133162</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731655471.5688694.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731655472.2133162.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>130.42</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>130.46</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731655472.4329476</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731655476.2326076</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731655472.4329476.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731655476.2326076.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>130.48</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>128.16</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.319999999999993</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731655479.7672057</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731655482.0244493</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731655479.7672057.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731655482.0244493.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>41.185</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>41.425</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731655483.6366029</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731655484.5845377</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731655483.6366029.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731655484.5845377.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>41.585</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>41.555</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2407,51 +2645,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731655484.6004944</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731655485.428356</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731655484.6004944.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731655485.428356.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>41.555</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>41.45</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1049999999999969</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2459,95 +2703,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731655488.9246116</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731655488.9246116.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731655488.9246116.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>41.085</v>
       </c>
-      <c r="J41" t="n">
-        <v>41.085</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.76</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.3250000000000028</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731655493.629704</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731655495.0666482</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731655493.629704.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731655495.0666482.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1213.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>26</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>2.19</v>
       </c>
     </row>
@@ -2555,51 +2811,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731655495.2543483</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731655496.4075153</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731655495.2543483.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731655496.4075153.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1201.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1201</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2607,51 +2869,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731655496.529952</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731655498.4905896</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731655496.529952.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731655498.4905896.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1200.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1200.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3999999999998636</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2659,51 +2927,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731655502.2984383</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731655503.0700583</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731655502.2984383.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731655503.0700583.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>47.07</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>47.43</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -2711,51 +2985,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731655503.6933947</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731655512.4957712</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731655503.6933947.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731655512.4957712.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>47.37</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>48.31</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.9400000000000048</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>1.98</v>
       </c>
     </row>
@@ -2763,51 +3043,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731655516.9270678</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731655520.0770166</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731655516.9270678.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731655520.0770166.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>87.84</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>87.42</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.4200000000000017</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -2815,51 +3101,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731655520.0939534</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731655522.3759806</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731655520.0939534.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731655522.3759806.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>87.42</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>88.54000000000001</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-1.120000000000005</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-1.28</v>
       </c>
     </row>
@@ -2867,51 +3159,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731655528.6035054</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731655529.3951807</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731655528.6035054.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731655529.3951807.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>47.53</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>47.78</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.25</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -2919,51 +3217,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731655531.554699</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731655532.3568847</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731655531.554699.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731655532.3568847.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>47.7</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>47.6</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2971,51 +3275,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731655535.5299847</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731655535.9504905</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731655535.5299847.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731655535.9504905.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>47.17</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>46.65</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.5200000000000031</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731655538.0783372</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731655538.94964</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655538.0783372.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655538.94964.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>138.66</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>139.02</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3600000000000136</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731655539.0375144</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731655539.8709776</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655539.0375144.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655539.8709776.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>139.76</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>139.32</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731655540.608112</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731655542.4249516</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655540.608112.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655542.4249516.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>139.64</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>139.48</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731655542.4412987</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731655543.0065408</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655542.4412987.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655543.0065408.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>139.48</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>139.52</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.04000000000002046</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731655543.847853</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731655546.131979</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655543.847853.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731655546.131979.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>139.8</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>138.16</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1.640000000000015</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-1.17</v>
       </c>
     </row>
@@ -3283,95 +3623,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731655546.1479337</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731655546.1479337.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731655546.1479337.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>138.16</v>
       </c>
-      <c r="J57" t="n">
-        <v>138.16</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>138.84</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731655550.293219</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731655551.7325435</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731655550.293219.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731655551.7325435.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.2794</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.2797</v>
       </c>
-      <c r="K58" t="n">
-        <v>0.000299999999999967</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
+        <v>0.0003000000000000225</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3379,51 +3731,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731655551.8637087</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731655554.802875</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731655551.8637087.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731655554.802875.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.2798</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.2801</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.0003000000000000225</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3431,95 +3789,107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731655554.818812</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731655554.818812.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731655554.818812.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.2801</v>
       </c>
-      <c r="J60" t="n">
-        <v>0.2801</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.2766</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.003500000000000003</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731655557.4627929</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731655558.4975286</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731655557.4627929.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731655558.4975286.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>15.012</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>15.23</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.218</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -3527,51 +3897,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731655559.602745</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731655561.7728379</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731655559.602745.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731655561.7728379.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>15.282</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>15.298</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.01600000000000001</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3579,51 +3955,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731655561.9320714</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731655562.9301765</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731655561.9320714.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731655562.9301765.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>15.351</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>15.281</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3631,95 +4013,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731655569.185633</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731655569.185633.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731655569.185633.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>15.163</v>
       </c>
-      <c r="J64" t="n">
-        <v>15.163</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>15.113</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.05000000000000071</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731655571.7396104</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731655575.4972818</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731655571.7396104.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731655575.4972818.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>646.5</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>651.9</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>5.399999999999977</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -3727,51 +4121,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731655575.7062273</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731655576.397992</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731655575.7062273.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731655576.397992.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>653.6</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>651.85</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.75</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3779,51 +4179,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731655577.5625927</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731655578.5399132</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731655577.5625927.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731655578.5399132.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>652.8</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>653</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3831,95 +4237,107 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731655579.6088202</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731655579.6088202.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731655579.6088202.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>651.3</v>
       </c>
-      <c r="J68" t="n">
-        <v>651.3</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>646.65</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4.649999999999977</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731655582.744205</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731655585.2127404</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731655582.744205.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731655585.2127404.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>113.67</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>113.89</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3927,51 +4345,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731655585.3063972</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731655588.7018847</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731655585.3063972.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731655588.7018847.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>114.11</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>114.23</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4033,19 +4457,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5500000000000398</v>
+        <v>0.4899999999999523</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09166666666667329</v>
+        <v>0.08166666666665871</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3199999999999998</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -4055,19 +4479,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.04000000000002</v>
+        <v>-1.720000000000027</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1733333333333368</v>
+        <v>-0.2866666666666712</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.74</v>
+        <v>-1.23</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.12</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4">
@@ -4077,19 +4501,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.5</v>
+        <v>109.5</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>20.5</v>
+        <v>21.9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="F4" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -4099,19 +4523,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3040000000000003</v>
+        <v>0.354000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07600000000000007</v>
+        <v>0.08850000000000025</v>
       </c>
       <c r="E5" t="n">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -4121,19 +4545,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3499999999999943</v>
+        <v>-0.04000000000000625</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08749999999999858</v>
+        <v>-0.01000000000000156</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.27</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
@@ -4143,19 +4567,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3149999999999906</v>
+        <v>0.6399999999999935</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07874999999999766</v>
+        <v>0.1599999999999984</v>
       </c>
       <c r="E7" t="n">
-        <v>0.76</v>
+        <v>1.55</v>
       </c>
       <c r="F7" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
@@ -4165,19 +4589,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.350000000000023</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.837500000000006</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>1.14</v>
+        <v>1.85</v>
       </c>
       <c r="F8" t="n">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9">
@@ -4253,19 +4677,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.7000000000000028</v>
+        <v>-0.5</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2333333333333343</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.66</v>
+        <v>-0.47</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.22</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="13">
@@ -4275,19 +4699,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>-0.003500000000000003</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.850371707708594e-17</v>
+        <v>-0.001166666666666668</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4721,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.399999999999977</v>
+        <v>17.39999999999998</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3.133333333333326</v>
+        <v>5.799999999999993</v>
       </c>
       <c r="E14" t="n">
-        <v>0.97</v>
+        <v>1.79</v>
       </c>
       <c r="F14" t="n">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -4319,19 +4743,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.600000000000023</v>
+        <v>8.800000000000068</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>2.533333333333341</v>
+        <v>2.933333333333356</v>
       </c>
       <c r="E15" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="F15" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="16">
@@ -4341,19 +4765,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1599999999999682</v>
+        <v>1.489999999999952</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05333333333332272</v>
+        <v>0.4966666666666508</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
